--- a/Шаблоны/Scenar2.xlsx
+++ b/Шаблоны/Scenar2.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24430"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VR_1264\Шаблоны\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Gerasimovskaya_1264\Шаблоны\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{861F8AF9-2CBE-46FA-AAC3-B9414CEA0B6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5805" yWindow="3578" windowWidth="15270" windowHeight="9202" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5805" yWindow="3585" windowWidth="15270" windowHeight="9195" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Отчет" sheetId="1" r:id="rId1"/>
     <sheet name="Выполнение" sheetId="3" r:id="rId2"/>
     <sheet name="Норматив" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -87,7 +86,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -143,11 +145,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -427,21 +430,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.6640625" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" customWidth="1"/>
-    <col min="3" max="4" width="13.53125" customWidth="1"/>
+    <col min="1" max="1" width="39.7109375" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" customWidth="1"/>
+    <col min="3" max="4" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -449,16 +452,16 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="3">
         <f ca="1">TODAY()</f>
-        <v>45257</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+        <v>45391</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -466,7 +469,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -474,7 +477,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -485,7 +488,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -493,7 +496,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -504,7 +507,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -515,7 +518,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -529,7 +532,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -544,24 +547,477 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FB7E95B-9464-4CBF-82F3-843C20175B21}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:B150"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B150"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1" s="4"/>
+    </row>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2" s="4"/>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B3" s="4"/>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B4" s="4"/>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B5" s="4"/>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B6" s="4"/>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B7" s="4"/>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B8" s="4"/>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B9" s="4"/>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B10" s="4"/>
+    </row>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B11" s="4"/>
+    </row>
+    <row r="12" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B12" s="4"/>
+    </row>
+    <row r="13" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B13" s="4"/>
+    </row>
+    <row r="14" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B14" s="4"/>
+    </row>
+    <row r="15" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B15" s="4"/>
+    </row>
+    <row r="16" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B16" s="4"/>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="4"/>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" s="4"/>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19" s="4"/>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B20" s="4"/>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B21" s="4"/>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B22" s="4"/>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B23" s="4"/>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B24" s="4"/>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B25" s="4"/>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B26" s="4"/>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B27" s="4"/>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B28" s="4"/>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B29" s="4"/>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B30" s="4"/>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B31" s="4"/>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B32" s="4"/>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B33" s="4"/>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B34" s="4"/>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B35" s="4"/>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B36" s="4"/>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B37" s="4"/>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B38" s="4"/>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B39" s="4"/>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B40" s="4"/>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B41" s="4"/>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B42" s="4"/>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B43" s="4"/>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B44" s="4"/>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B45" s="4"/>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B46" s="4"/>
+    </row>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B47" s="4"/>
+    </row>
+    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B48" s="4"/>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B49" s="4"/>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B50" s="4"/>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B51" s="4"/>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B52" s="4"/>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B53" s="4"/>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B54" s="4"/>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B55" s="4"/>
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B56" s="4"/>
+    </row>
+    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B57" s="4"/>
+    </row>
+    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B58" s="4"/>
+    </row>
+    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B59" s="4"/>
+    </row>
+    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B60" s="4"/>
+    </row>
+    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B61" s="4"/>
+    </row>
+    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B62" s="4"/>
+    </row>
+    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B63" s="4"/>
+    </row>
+    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B64" s="4"/>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B65" s="4"/>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B66" s="4"/>
+    </row>
+    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B67" s="4"/>
+    </row>
+    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B68" s="4"/>
+    </row>
+    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B69" s="4"/>
+    </row>
+    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B70" s="4"/>
+    </row>
+    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B71" s="4"/>
+    </row>
+    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B72" s="4"/>
+    </row>
+    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B73" s="4"/>
+    </row>
+    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B74" s="4"/>
+    </row>
+    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B75" s="4"/>
+    </row>
+    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B76" s="4"/>
+    </row>
+    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B77" s="4"/>
+    </row>
+    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B78" s="4"/>
+    </row>
+    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B79" s="4"/>
+    </row>
+    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B80" s="4"/>
+    </row>
+    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B81" s="4"/>
+    </row>
+    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B82" s="4"/>
+    </row>
+    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B83" s="4"/>
+    </row>
+    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B84" s="4"/>
+    </row>
+    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B85" s="4"/>
+    </row>
+    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B86" s="4"/>
+    </row>
+    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B87" s="4"/>
+    </row>
+    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B88" s="4"/>
+    </row>
+    <row r="89" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B89" s="4"/>
+    </row>
+    <row r="90" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B90" s="4"/>
+    </row>
+    <row r="91" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B91" s="4"/>
+    </row>
+    <row r="92" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B92" s="4"/>
+    </row>
+    <row r="93" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B93" s="4"/>
+    </row>
+    <row r="94" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B94" s="4"/>
+    </row>
+    <row r="95" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B95" s="4"/>
+    </row>
+    <row r="96" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B96" s="4"/>
+    </row>
+    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B97" s="4"/>
+    </row>
+    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B98" s="4"/>
+    </row>
+    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B99" s="4"/>
+    </row>
+    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B100" s="4"/>
+    </row>
+    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B101" s="4"/>
+    </row>
+    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B102" s="4"/>
+    </row>
+    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B103" s="4"/>
+    </row>
+    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B104" s="4"/>
+    </row>
+    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B105" s="4"/>
+    </row>
+    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B106" s="4"/>
+    </row>
+    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B107" s="4"/>
+    </row>
+    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B108" s="4"/>
+    </row>
+    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B109" s="4"/>
+    </row>
+    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B110" s="4"/>
+    </row>
+    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B111" s="4"/>
+    </row>
+    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B112" s="4"/>
+    </row>
+    <row r="113" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B113" s="4"/>
+    </row>
+    <row r="114" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B114" s="4"/>
+    </row>
+    <row r="115" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B115" s="4"/>
+    </row>
+    <row r="116" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B116" s="4"/>
+    </row>
+    <row r="117" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B117" s="4"/>
+    </row>
+    <row r="118" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B118" s="4"/>
+    </row>
+    <row r="119" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B119" s="4"/>
+    </row>
+    <row r="120" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B120" s="4"/>
+    </row>
+    <row r="121" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B121" s="4"/>
+    </row>
+    <row r="122" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B122" s="4"/>
+    </row>
+    <row r="123" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B123" s="4"/>
+    </row>
+    <row r="124" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B124" s="4"/>
+    </row>
+    <row r="125" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B125" s="4"/>
+    </row>
+    <row r="126" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B126" s="4"/>
+    </row>
+    <row r="127" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B127" s="4"/>
+    </row>
+    <row r="128" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B128" s="4"/>
+    </row>
+    <row r="129" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B129" s="4"/>
+    </row>
+    <row r="130" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B130" s="4"/>
+    </row>
+    <row r="131" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B131" s="4"/>
+    </row>
+    <row r="132" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B132" s="4"/>
+    </row>
+    <row r="133" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B133" s="4"/>
+    </row>
+    <row r="134" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B134" s="4"/>
+    </row>
+    <row r="135" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B135" s="4"/>
+    </row>
+    <row r="136" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B136" s="4"/>
+    </row>
+    <row r="137" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B137" s="4"/>
+    </row>
+    <row r="138" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B138" s="4"/>
+    </row>
+    <row r="139" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B139" s="4"/>
+    </row>
+    <row r="140" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B140" s="4"/>
+    </row>
+    <row r="141" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B141" s="4"/>
+    </row>
+    <row r="142" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B142" s="4"/>
+    </row>
+    <row r="143" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B143" s="4"/>
+    </row>
+    <row r="144" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B144" s="4"/>
+    </row>
+    <row r="145" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B145" s="4"/>
+    </row>
+    <row r="146" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B146" s="4"/>
+    </row>
+    <row r="147" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B147" s="4"/>
+    </row>
+    <row r="148" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B148" s="4"/>
+    </row>
+    <row r="149" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B149" s="4"/>
+    </row>
+    <row r="150" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B150" s="4"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED6E063E-1CE8-43A5-BBBA-30AA7E29F73F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Шаблоны/Scenar2.xlsx
+++ b/Шаблоны/Scenar2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5805" yWindow="3585" windowWidth="15270" windowHeight="9195" activeTab="1"/>
+    <workbookView xWindow="5805" yWindow="3585" windowWidth="15270" windowHeight="9195" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Отчет" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="194">
   <si>
     <t>Дата прохождения:</t>
   </si>
@@ -81,16 +81,548 @@
   </si>
   <si>
     <t>Сценарий №2 Вывод в ремонт трансформатора</t>
+  </si>
+  <si>
+    <t>Номер</t>
+  </si>
+  <si>
+    <t>Время</t>
+  </si>
+  <si>
+    <t>Оборудования</t>
+  </si>
+  <si>
+    <t>Тип Действия</t>
+  </si>
+  <si>
+    <t>Доп Свойство</t>
+  </si>
+  <si>
+    <t>Последовательность действий</t>
+  </si>
+  <si>
+    <t>Вид операции</t>
+  </si>
+  <si>
+    <t>Зафиксировать время.</t>
+  </si>
+  <si>
+    <t>На терминале ЦС горит светодиод «Срабатывание защит Т1».</t>
+  </si>
+  <si>
+    <t>Выключатель В 110 Заря отключен.</t>
+  </si>
+  <si>
+    <t>Выключатель В 6 Т1 отключен.</t>
+  </si>
+  <si>
+    <t>Выключатель В 35 Т1 отключен.</t>
+  </si>
+  <si>
+    <t>Сквитировать ключ В 110 Заря. Горит зелёная сигнальная лампа.</t>
+  </si>
+  <si>
+    <t>На терминале основных защит горит светодиод: «ДЗТ».</t>
+  </si>
+  <si>
+    <t>Осмотреть трансформатор Т1 со всех сторон.</t>
+  </si>
+  <si>
+    <t>Осмотреть отходящие шины 6-110 кВ от трансформатора Т1.</t>
+  </si>
+  <si>
+    <t>Проверить работу видеорегистратора.</t>
+  </si>
+  <si>
+    <t>Проверить отключенное положение В 110 Заря по сигнальной лампе.</t>
+  </si>
+  <si>
+    <t>На ключ управления В 110 Заря вывесить плакат «НЕ ВКЛЮЧАТЬ! работают люди».</t>
+  </si>
+  <si>
+    <t>Проверить отключенное положение В 6 Т1 по сигнальной лампе.</t>
+  </si>
+  <si>
+    <t>На ключ управления В 6 Т1 вывесить плакат «НЕ ВКЛЮЧАТЬ! работают люди».</t>
+  </si>
+  <si>
+    <t>Проверить отключенное положение В 35 Т1 по сигнальной лампе</t>
+  </si>
+  <si>
+    <t>На ключ управления В 35 Т1 вывесить плакат «НЕ ВКЛЮЧАТЬ! работают люди»</t>
+  </si>
+  <si>
+    <t>Отключить автоматы цепей управления  ЭМВ, ЭМО 1, ЭМО 2, В 110 Заря.</t>
+  </si>
+  <si>
+    <t>На автоматы цепей управления ЭМВ, ЭМО 1, ЭМО 2 В 110 Заря вывесить плакаты «НЕ ВКЛЮЧАТЬ! работают люди».</t>
+  </si>
+  <si>
+    <t>Отключить автомат цепей управления ЭМВ и ЭМО В 35 Т1.</t>
+  </si>
+  <si>
+    <t>На автомат цепей управления ЭМВ и ЭМО В 35 Т1 вывесить плакаты «НЕ ВКЛЮЧАТЬ! работают люди».</t>
+  </si>
+  <si>
+    <t>Проверить напряжение на СШ-110-2. По киловольтметру ТН-2 110 кВ проверить наличие напряжения на стороне 110 кВ.</t>
+  </si>
+  <si>
+    <t>По указателю проверить отключенное положение В 6 Т1.</t>
+  </si>
+  <si>
+    <t>Отключить автомат цепей управления В 6 Т1.</t>
+  </si>
+  <si>
+    <t>На автомат цепей управления В 6 Т1 вывесить плакат «НЕ ВКЛЮЧАТЬ! работают люди»</t>
+  </si>
+  <si>
+    <t>Проверить вкаченное положение тележки выключателя В 6 Т2.</t>
+  </si>
+  <si>
+    <t>Включить автомат цепей управления В 6 Т2.</t>
+  </si>
+  <si>
+    <t>Включить В 6 Т2.</t>
+  </si>
+  <si>
+    <t>Проверить включенное положение В 6 Т2 по сигнальной лампе.</t>
+  </si>
+  <si>
+    <t>По амперметру проверить наличие нагрузки на В 6 Т2.</t>
+  </si>
+  <si>
+    <t>По амперметру проверить наличие нагрузки на СВ 6.</t>
+  </si>
+  <si>
+    <t>Выйти, закрыть дверь в РУ 6 на ключ.</t>
+  </si>
+  <si>
+    <t>По киловольтметру ТН-2 6 проверить уровень напряжения на 2 СШ 6 кВ.</t>
+  </si>
+  <si>
+    <t>Ключом управления перевести положение РПН Т2 в положение, при котором напряжение на 2 СШ 6кВ будет равно 6 кВ.</t>
+  </si>
+  <si>
+    <t>По киловольтметру ТН-2 6 кВ проверить уровень напряжения на 2 СШ 6кВ.</t>
+  </si>
+  <si>
+    <t>Проверить по указателю положения отключенное состояние В 35 Т1.</t>
+  </si>
+  <si>
+    <t>Включить автомат цепей управления ЭМВ и ЭМО СВ 35.</t>
+  </si>
+  <si>
+    <t>Ключом управления включить выключатель СВ 35.</t>
+  </si>
+  <si>
+    <t>Проверить включенное положение СВ 35 по сигнальной лампе.</t>
+  </si>
+  <si>
+    <t>По амперметру убедиться в наличии нагрузки на СВ 35.</t>
+  </si>
+  <si>
+    <t>По киловольтметру ТН-2 35 кВ проверить уровень напряжения на 2 СШ 35 кВ.</t>
+  </si>
+  <si>
+    <t>Ключом управления перевести положение РПН Т2 в положение, при котором напряжение на 2 СШ 35кВ будет равно 35 кВ.</t>
+  </si>
+  <si>
+    <t>Произвести осмотр опорно-стержневой изоляции ТР 35 Т1.</t>
+  </si>
+  <si>
+    <t>Проверить по указателю положения отключенное состояние В 110 Заря.</t>
+  </si>
+  <si>
+    <t>Проверить по указателю положения отключенное состояние СВ 110.</t>
+  </si>
+  <si>
+    <t>Произвести осмотр опорно-стержневой изоляции ТР 110 Т1.</t>
+  </si>
+  <si>
+    <t>Отключить ключом управления разъединитель ТР 110 Т1.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Проверить отключенное положение ТР 110 Т1 по сигнальной лампе. </t>
+  </si>
+  <si>
+    <t>На ключ управления разъединителем ТР 110 Т1 вывесить плакат «НЕ ВКЛЮЧАТЬ! работают люди».</t>
+  </si>
+  <si>
+    <t>Отключить ключом управления  разъединитель ТР 35 Т1.</t>
+  </si>
+  <si>
+    <t>Проверить отключенное положение ТР 35 Т1 по сигнальной лампе.</t>
+  </si>
+  <si>
+    <t>На ключ управления разъединителем ТР 35 Т1 вывесить плакат «НЕ ВКЛЮЧАТЬ! работают люди».</t>
+  </si>
+  <si>
+    <t>Проверить отключенное положение ТР 110 Т1.</t>
+  </si>
+  <si>
+    <t>Отключить автомат цепей управления привода ТР 110 Т1.</t>
+  </si>
+  <si>
+    <t>На автомат цепей управления привода ТР 110 Т1 вывесить плакат «НЕ ВКЛЮЧАТЬ! работают люди».</t>
+  </si>
+  <si>
+    <t>Проверить отключенное положение ТР 35 Т1.</t>
+  </si>
+  <si>
+    <t>Отключить автомат цепей управления привода ТР 35 Т1.</t>
+  </si>
+  <si>
+    <t>На автомат цепей управления привода ТР 35 Т1 вывесить плакат «НЕ ВКЛЮЧАТЬ! работают люди».</t>
+  </si>
+  <si>
+    <t>Проверить целостность диэлектрических перчаток.</t>
+  </si>
+  <si>
+    <t>Надеть перчатки.</t>
+  </si>
+  <si>
+    <t>Выкатить тележку В 6 Т1 в ремонтное положение.</t>
+  </si>
+  <si>
+    <t>На ячейку В 6 Т1 вывесить плакат «НЕ ВКЛЮЧАТЬ! работают люди».</t>
+  </si>
+  <si>
+    <t>Надеть диэлектрические перчатки.</t>
+  </si>
+  <si>
+    <t>Проверить исправность указателя напряжения 6 кВ прикосновением к токоведущим частям, заведомо находящимся под напряжением - к ошиновке 6 кВ 2 секции шин.</t>
+  </si>
+  <si>
+    <t>Проверить отсутствие напряжения на ошиновке 6 кВ Т1 в сторону трансформатора Т1 в течении времени не менее 5 сек.</t>
+  </si>
+  <si>
+    <t>Вставить блокировочный ключ.</t>
+  </si>
+  <si>
+    <t>Включить ЗНТ В 6 Т1.</t>
+  </si>
+  <si>
+    <t>Визуально проверить включенное состояние ЗНТ В 6 Т1.</t>
+  </si>
+  <si>
+    <t>На ключ управления В 6 Т1 вывесить плакат «Заземлено».</t>
+  </si>
+  <si>
+    <t>Проверить диэлектрические перчатки на целостность.</t>
+  </si>
+  <si>
+    <t>Проверить исправность указателя напряжения 35 кВ, прикосновением к токоведущим частям, заведомо находящимся под напряжением - к жесткой ошиновке 35 кВ 2 секции шин.</t>
+  </si>
+  <si>
+    <t>Проверить отсутствие напряжения на ТР 35 Т1 в сторону трансформатора Т1 в течении времени не менее 5 сек.</t>
+  </si>
+  <si>
+    <t>Осмотреть опорно-стержневую изоляцию ЗНТ ТР 35 Т1.</t>
+  </si>
+  <si>
+    <t>Включить ЗНТ ТР 35 Т1.</t>
+  </si>
+  <si>
+    <t>Визуально проверить включенное состояние ЗНТ ТР 35 Т1.</t>
+  </si>
+  <si>
+    <t>На привод ТР 35 Т1 вывесить плакат «Заземлено».</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Надеть диэлектрические перчатки. </t>
+  </si>
+  <si>
+    <t>Проверить исправность указателя напряжения 110 кВ прикосновением к токоведущим частям, заведомо находящимся под напряжением - к жесткой ошиновке 110 кВ 2 секции шин.</t>
+  </si>
+  <si>
+    <t>Проверить отсутствие напряжения на ТР 110 Т1 в сторону трансформатора в течении времени не менее 5 сек.</t>
+  </si>
+  <si>
+    <t>Осмотреть опорно-стержневую изоляцию ЗНТ ТР 110 Т1.</t>
+  </si>
+  <si>
+    <t>Включить ЗНТ ТР 110 Т1.</t>
+  </si>
+  <si>
+    <t>Визуально проверить включенное состояние ЗНТ ТР 110 Т1.</t>
+  </si>
+  <si>
+    <t>На привод ТР 110 Т1 вывесить плакат «Заземлено».</t>
+  </si>
+  <si>
+    <t>Основная операция</t>
+  </si>
+  <si>
+    <t>Проверочная операция</t>
+  </si>
+  <si>
+    <t>Нарушение ПОТ</t>
+  </si>
+  <si>
+    <t>Критично</t>
+  </si>
+  <si>
+    <t>Основная</t>
+  </si>
+  <si>
+    <t>Проверочная</t>
+  </si>
+  <si>
+    <t>ПОТ</t>
+  </si>
+  <si>
+    <t>Критическая</t>
+  </si>
+  <si>
+    <t>Сквитировать ключ В 6 Т1. Горит зелёная сигнальная лампа.</t>
+  </si>
+  <si>
+    <t>Сквитировать ключ В 35 Т1. Горит зелёная сигнальная лампа.</t>
+  </si>
+  <si>
+    <t>ОПУ_Часы</t>
+  </si>
+  <si>
+    <t>ОПУ_6У_Бреслер</t>
+  </si>
+  <si>
+    <t>ОПУ_2У_В110Заря_ЗеленаяСигнальнаяЛампа</t>
+  </si>
+  <si>
+    <t>ОПУ_2У_В6Т1_ЗеленаяСигнальнаяЛампа</t>
+  </si>
+  <si>
+    <t>ОПУ_2У_В35Т1_ЗеленаяСигнальнаяЛампа</t>
+  </si>
+  <si>
+    <t>default_activate</t>
+  </si>
+  <si>
+    <t>change value to</t>
+  </si>
+  <si>
+    <t>ОПУ_2У_В110Заря_Ключ</t>
+  </si>
+  <si>
+    <t>ОПУ_2У_В6Т1_Ключ</t>
+  </si>
+  <si>
+    <t>ОПУ_2У_В35Т1_Ключ</t>
+  </si>
+  <si>
+    <t>ОПУ_1Р_Бреслер</t>
+  </si>
+  <si>
+    <t>ОРУ110_Трансформатор_Т1</t>
+  </si>
+  <si>
+    <t>ОРУ110_ОтходящиеШины_6-110кВ_Т1</t>
+  </si>
+  <si>
+    <t>ОПУ_Видеорегистратор</t>
+  </si>
+  <si>
+    <t>ОПУ_2У_В110Заря_Плакат</t>
+  </si>
+  <si>
+    <t>ОПУ_2У_В6Т1_Плакат</t>
+  </si>
+  <si>
+    <t>ОПУ_2У_В35Т1_Плакат</t>
+  </si>
+  <si>
+    <t>put a sign</t>
+  </si>
+  <si>
+    <t>ОПУ_ШРОТ_Автомат_В110Заря</t>
+  </si>
+  <si>
+    <t>ОПУ_ШРОТ_Плакат_В110Заря</t>
+  </si>
+  <si>
+    <t>ОПУ_ШРОТ_Автомат_В35Т1</t>
+  </si>
+  <si>
+    <t>ОПУ_ШРОТ_Плакат_В35Т1</t>
+  </si>
+  <si>
+    <t>switch value to</t>
+  </si>
+  <si>
+    <t>ОПУ_4У_Киловольтметр</t>
+  </si>
+  <si>
+    <t>РУ6_Ячейка9_В6Т1_Указатель</t>
+  </si>
+  <si>
+    <t>РУ6_Ячейка9_В6Т1_Автомат</t>
+  </si>
+  <si>
+    <t>РУ6_Ячейка9_В6Т1_Плакат</t>
+  </si>
+  <si>
+    <t>РУ6_Ячейка18_В6Т2_Указатель</t>
+  </si>
+  <si>
+    <t>РУ6_Ячейка18_В6Т2_Автомат</t>
+  </si>
+  <si>
+    <t>РУ6_Ячейка18_В6Т2_Кнопка</t>
+  </si>
+  <si>
+    <t>РУ6_Ячейка18_В6Т2_Амперметр</t>
+  </si>
+  <si>
+    <t>РУ6_Ячейка11_СВ6_Амперметр</t>
+  </si>
+  <si>
+    <t>ОПУ_3У_Киловольтметр</t>
+  </si>
+  <si>
+    <t>ОПУ_4У_РПН_Т2</t>
+  </si>
+  <si>
+    <t>ОПУ_ШРОТ_Автомат_СВ35</t>
+  </si>
+  <si>
+    <t>ОПУ_3У_СВ35_Ключ</t>
+  </si>
+  <si>
+    <t>ОПУ_3У_СВ35_КраснаяСигнальнаяЛампа</t>
+  </si>
+  <si>
+    <t>ОПУ_3У_СВ35_Амперметр</t>
+  </si>
+  <si>
+    <t>ОПУ_5У_ТН-2_Киловольтметр</t>
+  </si>
+  <si>
+    <t>ОРУ35_ТР35_Т1</t>
+  </si>
+  <si>
+    <t>ОРУ110_ТР110_Т1</t>
+  </si>
+  <si>
+    <t>ОРУ110_В110Заря</t>
+  </si>
+  <si>
+    <t>ОРУ110_СВ110</t>
+  </si>
+  <si>
+    <t>ОРУ35_В35_Т1</t>
+  </si>
+  <si>
+    <t>ОПУ_2У_ТР110_Ключ</t>
+  </si>
+  <si>
+    <t>ОПУ_2У_ТР110_ЗеленаяСигнальнаяЛампа</t>
+  </si>
+  <si>
+    <t>ОПУ_2У_ТР110_Плакат</t>
+  </si>
+  <si>
+    <t>ОПУ_2У_ТР35_Ключ</t>
+  </si>
+  <si>
+    <t>ОПУ_2У_ТР35_Плакат</t>
+  </si>
+  <si>
+    <t>ОПУ_2У_ТР35_ЗеленаяСигнальнаяЛампа</t>
+  </si>
+  <si>
+    <t>ОРУ110_ТР110_Т1_Автомат</t>
+  </si>
+  <si>
+    <t>ОРУ35_ТР35_Т1_Автомат</t>
+  </si>
+  <si>
+    <t>ОРУ110_ТР110_Т1_Плакат</t>
+  </si>
+  <si>
+    <t>ОРУ35_ТР35_Т1_Плакат</t>
+  </si>
+  <si>
+    <t>сheck integrity</t>
+  </si>
+  <si>
+    <t>РУ6_Ячейка9_Тележка</t>
+  </si>
+  <si>
+    <t>РУ6_Ячейка9_Плакат</t>
+  </si>
+  <si>
+    <t>put on</t>
+  </si>
+  <si>
+    <t>roll out</t>
+  </si>
+  <si>
+    <t>check voltage</t>
+  </si>
+  <si>
+    <t>РУ6_6кВ_2секция</t>
+  </si>
+  <si>
+    <t>РУ6_6кВ_Т1</t>
+  </si>
+  <si>
+    <t>РУ6_Ячейка9_БлокировочныйКлюч</t>
+  </si>
+  <si>
+    <t>put a block</t>
+  </si>
+  <si>
+    <t>РУ6_Ячейка9_ЗНТВ6Т1</t>
+  </si>
+  <si>
+    <t>РУ6_Ячейка9_В6Т1_ПлакатЗаземлено</t>
+  </si>
+  <si>
+    <t>ОРУ35_ТР35_БлокировочныйКлюч</t>
+  </si>
+  <si>
+    <t>ОРУ35_ТР35_Выключатель</t>
+  </si>
+  <si>
+    <t>ОРУ35_ТР35_Т1_ПлакатЗаземлено</t>
+  </si>
+  <si>
+    <t>ОРУ110_110кВ_Т1</t>
+  </si>
+  <si>
+    <t>ОРУ110_110кВ_2секция</t>
+  </si>
+  <si>
+    <t>ОРУ35_35кВ_Т1</t>
+  </si>
+  <si>
+    <t>ОРУ35_35кВ_2секция</t>
+  </si>
+  <si>
+    <t>ОРУ110_ТР110_Т1_БлокировочныйКлюч</t>
+  </si>
+  <si>
+    <t>ОРУ110_ТР110_Выключатель</t>
+  </si>
+  <si>
+    <t>ОРУ110_ТР110_Т1_ПлакатЗаземлено</t>
+  </si>
+  <si>
+    <t>ОРУ_Перчатки_Проверить</t>
+  </si>
+  <si>
+    <t>ОРУ_Перчатки_Надеть</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="165" formatCode="hh:mm:ss"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -117,6 +649,34 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="3">
@@ -145,12 +705,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -458,7 +1027,7 @@
       </c>
       <c r="B2" s="3">
         <f ca="1">TODAY()</f>
-        <v>45391</v>
+        <v>45407</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -548,60 +1117,80 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:B150"/>
+  <dimension ref="A1:E150"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B150"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="18.140625" customWidth="1"/>
+    <col min="3" max="3" width="62.140625" customWidth="1"/>
+    <col min="4" max="4" width="23" customWidth="1"/>
+    <col min="5" max="5" width="20.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1" s="4"/>
-    </row>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B2" s="4"/>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B3" s="4"/>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4" s="4"/>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B5" s="4"/>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B6" s="4"/>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B7" s="4"/>
     </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B8" s="4"/>
     </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B9" s="4"/>
     </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" s="4"/>
     </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B11" s="4"/>
     </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B12" s="4"/>
     </row>
-    <row r="13" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B13" s="4"/>
     </row>
-    <row r="14" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B14" s="4"/>
     </row>
-    <row r="15" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B15" s="4"/>
     </row>
-    <row r="16" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B16" s="4"/>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
@@ -1013,12 +1602,1991 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:K127"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="C71" sqref="C71"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="13.42578125" customWidth="1"/>
+    <col min="2" max="2" width="27.5703125" customWidth="1"/>
+    <col min="3" max="3" width="47.28515625" customWidth="1"/>
+    <col min="4" max="4" width="29.140625" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" customWidth="1"/>
+    <col min="6" max="6" width="34.28515625" customWidth="1"/>
+    <col min="7" max="7" width="22.5703125" customWidth="1"/>
+    <col min="8" max="8" width="18.85546875" customWidth="1"/>
+    <col min="9" max="9" width="17" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" t="s">
+        <v>110</v>
+      </c>
+      <c r="I1" t="s">
+        <v>111</v>
+      </c>
+      <c r="J1" t="s">
+        <v>112</v>
+      </c>
+      <c r="K1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D3" t="s">
+        <v>121</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D4" t="s">
+        <v>122</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D5" t="s">
+        <v>122</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" t="s">
+        <v>120</v>
+      </c>
+      <c r="D6" t="s">
+        <v>122</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" t="s">
+        <v>123</v>
+      </c>
+      <c r="D7" t="s">
+        <v>138</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" t="s">
+        <v>124</v>
+      </c>
+      <c r="D8" t="s">
+        <v>138</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" t="s">
+        <v>125</v>
+      </c>
+      <c r="D9" t="s">
+        <v>138</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4"/>
+      <c r="C10" t="s">
+        <v>126</v>
+      </c>
+      <c r="D10" t="s">
+        <v>121</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" t="s">
+        <v>127</v>
+      </c>
+      <c r="D11" t="s">
+        <v>121</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4"/>
+      <c r="C12" t="s">
+        <v>128</v>
+      </c>
+      <c r="D12" t="s">
+        <v>121</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4"/>
+      <c r="C13" t="s">
+        <v>129</v>
+      </c>
+      <c r="D13" t="s">
+        <v>121</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="4"/>
+      <c r="C14" t="s">
+        <v>118</v>
+      </c>
+      <c r="D14" t="s">
+        <v>122</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="4"/>
+      <c r="C15" t="s">
+        <v>130</v>
+      </c>
+      <c r="D15" t="s">
+        <v>133</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="4"/>
+      <c r="C16" t="s">
+        <v>119</v>
+      </c>
+      <c r="D16" t="s">
+        <v>122</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="4"/>
+      <c r="C17" t="s">
+        <v>131</v>
+      </c>
+      <c r="D17" t="s">
+        <v>133</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="4"/>
+      <c r="C18" t="s">
+        <v>120</v>
+      </c>
+      <c r="D18" t="s">
+        <v>122</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="4"/>
+      <c r="C19" t="s">
+        <v>132</v>
+      </c>
+      <c r="D19" t="s">
+        <v>133</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="4"/>
+      <c r="C20" t="s">
+        <v>134</v>
+      </c>
+      <c r="D20" t="s">
+        <v>138</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="4"/>
+      <c r="C21" t="s">
+        <v>135</v>
+      </c>
+      <c r="D21" t="s">
+        <v>133</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="4"/>
+      <c r="C22" t="s">
+        <v>136</v>
+      </c>
+      <c r="D22" t="s">
+        <v>138</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" s="4"/>
+      <c r="C23" t="s">
+        <v>137</v>
+      </c>
+      <c r="D23" t="s">
+        <v>133</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G23" s="10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" s="4"/>
+      <c r="C24" t="s">
+        <v>139</v>
+      </c>
+      <c r="D24" t="s">
+        <v>122</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" s="4"/>
+      <c r="C25" t="s">
+        <v>140</v>
+      </c>
+      <c r="D25" t="s">
+        <v>122</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G25" s="9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" s="4"/>
+      <c r="C26" t="s">
+        <v>141</v>
+      </c>
+      <c r="D26" t="s">
+        <v>138</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G26" s="10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" s="4"/>
+      <c r="C27" t="s">
+        <v>142</v>
+      </c>
+      <c r="D27" t="s">
+        <v>133</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G27" s="10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" s="4"/>
+      <c r="C28" t="s">
+        <v>143</v>
+      </c>
+      <c r="D28" t="s">
+        <v>122</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G28" s="9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" s="4"/>
+      <c r="C29" t="s">
+        <v>144</v>
+      </c>
+      <c r="D29" t="s">
+        <v>138</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G29" s="11" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" s="4"/>
+      <c r="C30" t="s">
+        <v>145</v>
+      </c>
+      <c r="D30" t="s">
+        <v>138</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G30" s="11" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" s="4"/>
+      <c r="C31" t="s">
+        <v>143</v>
+      </c>
+      <c r="D31" t="s">
+        <v>122</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G31" s="9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" s="4"/>
+      <c r="C32" t="s">
+        <v>146</v>
+      </c>
+      <c r="D32" t="s">
+        <v>121</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G32" s="9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" s="4"/>
+      <c r="C33" t="s">
+        <v>147</v>
+      </c>
+      <c r="D33" t="s">
+        <v>121</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G33" s="9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" s="4"/>
+      <c r="F34" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G34" s="10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" s="4"/>
+      <c r="C35" t="s">
+        <v>148</v>
+      </c>
+      <c r="D35" t="s">
+        <v>122</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G35" s="9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" s="4"/>
+      <c r="C36" t="s">
+        <v>149</v>
+      </c>
+      <c r="D36" t="s">
+        <v>138</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G36" s="8" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" s="4"/>
+      <c r="C37" t="s">
+        <v>148</v>
+      </c>
+      <c r="D37" t="s">
+        <v>122</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G37" s="9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" s="4"/>
+      <c r="C38" t="s">
+        <v>159</v>
+      </c>
+      <c r="D38" t="s">
+        <v>122</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G38" s="9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" s="4"/>
+      <c r="C39" t="s">
+        <v>150</v>
+      </c>
+      <c r="D39" t="s">
+        <v>138</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G39" s="11" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" s="4"/>
+      <c r="C40" t="s">
+        <v>151</v>
+      </c>
+      <c r="D40" t="s">
+        <v>138</v>
+      </c>
+      <c r="E40">
+        <v>2</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G40" s="11" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" s="4"/>
+      <c r="C41" t="s">
+        <v>152</v>
+      </c>
+      <c r="D41" t="s">
+        <v>122</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G41" s="9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" s="4"/>
+      <c r="C42" t="s">
+        <v>153</v>
+      </c>
+      <c r="D42" t="s">
+        <v>121</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G42" s="9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" s="4"/>
+      <c r="C43" t="s">
+        <v>154</v>
+      </c>
+      <c r="D43" t="s">
+        <v>122</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G43" s="9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" s="4"/>
+      <c r="C44" t="s">
+        <v>149</v>
+      </c>
+      <c r="D44" t="s">
+        <v>138</v>
+      </c>
+      <c r="E44">
+        <v>2</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="G44" s="8" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" s="4"/>
+      <c r="C45" t="s">
+        <v>154</v>
+      </c>
+      <c r="D45" t="s">
+        <v>122</v>
+      </c>
+      <c r="E45">
+        <v>2</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G45" s="9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" s="4"/>
+      <c r="C46" t="s">
+        <v>155</v>
+      </c>
+      <c r="D46" t="s">
+        <v>122</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="G46" s="9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" s="4"/>
+      <c r="C47" t="s">
+        <v>157</v>
+      </c>
+      <c r="D47" t="s">
+        <v>121</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="G47" s="9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" s="4"/>
+      <c r="C48" t="s">
+        <v>158</v>
+      </c>
+      <c r="D48" t="s">
+        <v>121</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="G48" s="9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" s="4"/>
+      <c r="C49" t="s">
+        <v>156</v>
+      </c>
+      <c r="D49" t="s">
+        <v>122</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G49" s="9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" s="4"/>
+      <c r="C50" t="s">
+        <v>160</v>
+      </c>
+      <c r="D50" t="s">
+        <v>138</v>
+      </c>
+      <c r="E50">
+        <v>2</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G50" s="11" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" s="4"/>
+      <c r="C51" t="s">
+        <v>161</v>
+      </c>
+      <c r="D51" t="s">
+        <v>121</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="G51" s="9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" s="4"/>
+      <c r="C52" t="s">
+        <v>162</v>
+      </c>
+      <c r="D52" t="s">
+        <v>133</v>
+      </c>
+      <c r="F52" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="G52" s="10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" s="4"/>
+      <c r="C53" t="s">
+        <v>163</v>
+      </c>
+      <c r="D53" t="s">
+        <v>138</v>
+      </c>
+      <c r="E53">
+        <v>2</v>
+      </c>
+      <c r="F53" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="G53" s="11" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" s="4"/>
+      <c r="C54" t="s">
+        <v>165</v>
+      </c>
+      <c r="D54" t="s">
+        <v>121</v>
+      </c>
+      <c r="F54" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="G54" s="9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" s="4"/>
+      <c r="C55" t="s">
+        <v>164</v>
+      </c>
+      <c r="D55" t="s">
+        <v>133</v>
+      </c>
+      <c r="F55" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="G55" s="10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" s="4"/>
+      <c r="C56" t="s">
+        <v>156</v>
+      </c>
+      <c r="D56" t="s">
+        <v>122</v>
+      </c>
+      <c r="E56">
+        <v>2</v>
+      </c>
+      <c r="F56" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G56" s="9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" s="4"/>
+      <c r="C57" t="s">
+        <v>166</v>
+      </c>
+      <c r="D57" t="s">
+        <v>138</v>
+      </c>
+      <c r="E57">
+        <v>2</v>
+      </c>
+      <c r="F57" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="G57" s="10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" s="4"/>
+      <c r="C58" t="s">
+        <v>168</v>
+      </c>
+      <c r="D58" t="s">
+        <v>133</v>
+      </c>
+      <c r="F58" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G58" s="10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" s="4"/>
+      <c r="C59" t="s">
+        <v>155</v>
+      </c>
+      <c r="D59" t="s">
+        <v>122</v>
+      </c>
+      <c r="E59">
+        <v>2</v>
+      </c>
+      <c r="F59" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G59" s="9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" s="4"/>
+      <c r="C60" t="s">
+        <v>167</v>
+      </c>
+      <c r="D60" t="s">
+        <v>138</v>
+      </c>
+      <c r="E60">
+        <v>2</v>
+      </c>
+      <c r="F60" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G60" s="10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" s="4"/>
+      <c r="C61" t="s">
+        <v>169</v>
+      </c>
+      <c r="D61" t="s">
+        <v>133</v>
+      </c>
+      <c r="F61" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G61" s="10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" s="4"/>
+      <c r="C62" t="s">
+        <v>192</v>
+      </c>
+      <c r="D62" t="s">
+        <v>170</v>
+      </c>
+      <c r="E62">
+        <v>1</v>
+      </c>
+      <c r="F62" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G62" s="10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" s="4"/>
+      <c r="C63" t="s">
+        <v>193</v>
+      </c>
+      <c r="D63" t="s">
+        <v>173</v>
+      </c>
+      <c r="E63">
+        <v>1</v>
+      </c>
+      <c r="F63" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G63" s="10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" s="4"/>
+      <c r="C64" t="s">
+        <v>171</v>
+      </c>
+      <c r="D64" t="s">
+        <v>174</v>
+      </c>
+      <c r="F64" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G64" s="11" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" s="4"/>
+      <c r="C65" t="s">
+        <v>172</v>
+      </c>
+      <c r="D65" t="s">
+        <v>133</v>
+      </c>
+      <c r="F65" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G65" s="10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" s="4"/>
+      <c r="C66" t="s">
+        <v>192</v>
+      </c>
+      <c r="D66" t="s">
+        <v>170</v>
+      </c>
+      <c r="E66">
+        <v>2</v>
+      </c>
+      <c r="F66" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G66" s="10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" s="4"/>
+      <c r="C67" t="s">
+        <v>193</v>
+      </c>
+      <c r="D67" t="s">
+        <v>173</v>
+      </c>
+      <c r="E67">
+        <v>2</v>
+      </c>
+      <c r="F67" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G67" s="10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" s="4"/>
+      <c r="C68" t="s">
+        <v>176</v>
+      </c>
+      <c r="D68" t="s">
+        <v>175</v>
+      </c>
+      <c r="F68" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G68" s="10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69" s="4"/>
+      <c r="C69" t="s">
+        <v>177</v>
+      </c>
+      <c r="D69" t="s">
+        <v>175</v>
+      </c>
+      <c r="F69" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G69" s="10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70" s="4"/>
+      <c r="C70" t="s">
+        <v>192</v>
+      </c>
+      <c r="D70" t="s">
+        <v>170</v>
+      </c>
+      <c r="E70">
+        <v>3</v>
+      </c>
+      <c r="F70" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G70" s="10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71" s="4"/>
+      <c r="C71" t="s">
+        <v>193</v>
+      </c>
+      <c r="D71" t="s">
+        <v>173</v>
+      </c>
+      <c r="E71">
+        <v>3</v>
+      </c>
+      <c r="F71" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G71" s="10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72" s="4"/>
+      <c r="C72" t="s">
+        <v>178</v>
+      </c>
+      <c r="D72" t="s">
+        <v>179</v>
+      </c>
+      <c r="F72" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G72" s="11" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73" s="4"/>
+      <c r="C73" t="s">
+        <v>180</v>
+      </c>
+      <c r="D73" t="s">
+        <v>138</v>
+      </c>
+      <c r="E73">
+        <v>1</v>
+      </c>
+      <c r="F73" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="G73" s="11" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74" s="4"/>
+      <c r="C74" t="s">
+        <v>140</v>
+      </c>
+      <c r="D74" t="s">
+        <v>122</v>
+      </c>
+      <c r="E74">
+        <v>2</v>
+      </c>
+      <c r="F74" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G74" s="9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75" s="4"/>
+      <c r="C75" t="s">
+        <v>181</v>
+      </c>
+      <c r="D75" t="s">
+        <v>133</v>
+      </c>
+      <c r="F75" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="G75" s="10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76" s="4"/>
+      <c r="F76" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G76" s="10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77" s="4"/>
+      <c r="C77" t="s">
+        <v>192</v>
+      </c>
+      <c r="D77" t="s">
+        <v>170</v>
+      </c>
+      <c r="E77">
+        <v>4</v>
+      </c>
+      <c r="F77" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G77" s="10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78" s="4"/>
+      <c r="C78" t="s">
+        <v>193</v>
+      </c>
+      <c r="D78" t="s">
+        <v>173</v>
+      </c>
+      <c r="E78">
+        <v>4</v>
+      </c>
+      <c r="F78" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G78" s="10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79" s="4"/>
+      <c r="C79" t="s">
+        <v>188</v>
+      </c>
+      <c r="D79" t="s">
+        <v>175</v>
+      </c>
+      <c r="F79" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G79" s="10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80" s="4"/>
+      <c r="C80" t="s">
+        <v>187</v>
+      </c>
+      <c r="D80" t="s">
+        <v>175</v>
+      </c>
+      <c r="F80" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="G80" s="10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81" s="4"/>
+      <c r="C81" t="s">
+        <v>155</v>
+      </c>
+      <c r="D81" t="s">
+        <v>122</v>
+      </c>
+      <c r="E81">
+        <v>3</v>
+      </c>
+      <c r="F81" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G81" s="9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82" s="4"/>
+      <c r="C82" t="s">
+        <v>182</v>
+      </c>
+      <c r="D82" t="s">
+        <v>179</v>
+      </c>
+      <c r="F82" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G82" s="11" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83" s="4"/>
+      <c r="C83" t="s">
+        <v>183</v>
+      </c>
+      <c r="D83" t="s">
+        <v>138</v>
+      </c>
+      <c r="E83">
+        <v>1</v>
+      </c>
+      <c r="F83" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G83" s="11" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84" s="4"/>
+      <c r="C84" t="s">
+        <v>155</v>
+      </c>
+      <c r="D84" t="s">
+        <v>122</v>
+      </c>
+      <c r="E84">
+        <v>4</v>
+      </c>
+      <c r="F84" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G84" s="9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85" s="4"/>
+      <c r="C85" t="s">
+        <v>184</v>
+      </c>
+      <c r="D85" t="s">
+        <v>133</v>
+      </c>
+      <c r="F85" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G85" s="10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86" s="4"/>
+      <c r="C86" t="s">
+        <v>192</v>
+      </c>
+      <c r="D86" t="s">
+        <v>170</v>
+      </c>
+      <c r="E86">
+        <v>5</v>
+      </c>
+      <c r="F86" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G86" s="10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87" s="4"/>
+      <c r="C87" t="s">
+        <v>193</v>
+      </c>
+      <c r="D87" t="s">
+        <v>173</v>
+      </c>
+      <c r="E87">
+        <v>5</v>
+      </c>
+      <c r="F87" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="G87" s="10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88" s="4"/>
+      <c r="C88" t="s">
+        <v>186</v>
+      </c>
+      <c r="D88" t="s">
+        <v>175</v>
+      </c>
+      <c r="F88" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="G88" s="10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89" s="4"/>
+      <c r="C89" t="s">
+        <v>185</v>
+      </c>
+      <c r="D89" t="s">
+        <v>175</v>
+      </c>
+      <c r="F89" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="G89" s="10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90" s="4"/>
+      <c r="C90" t="s">
+        <v>156</v>
+      </c>
+      <c r="D90" t="s">
+        <v>122</v>
+      </c>
+      <c r="E90">
+        <v>3</v>
+      </c>
+      <c r="F90" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G90" s="9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91" s="4"/>
+      <c r="C91" t="s">
+        <v>189</v>
+      </c>
+      <c r="D91" t="s">
+        <v>179</v>
+      </c>
+      <c r="F91" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G91" s="11" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92" s="4"/>
+      <c r="C92" t="s">
+        <v>190</v>
+      </c>
+      <c r="D92" t="s">
+        <v>138</v>
+      </c>
+      <c r="E92">
+        <v>1</v>
+      </c>
+      <c r="F92" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="G92" s="11" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93" s="4"/>
+      <c r="C93" t="s">
+        <v>156</v>
+      </c>
+      <c r="D93" t="s">
+        <v>122</v>
+      </c>
+      <c r="E93">
+        <v>4</v>
+      </c>
+      <c r="F93" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="G93" s="9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94" s="4"/>
+      <c r="C94" t="s">
+        <v>191</v>
+      </c>
+      <c r="D94" t="s">
+        <v>133</v>
+      </c>
+      <c r="F94" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G94" s="10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B95" s="4"/>
+      <c r="F95" s="7"/>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B96" s="4"/>
+      <c r="F96" s="7"/>
+    </row>
+    <row r="97" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B97" s="4"/>
+      <c r="F97" s="7"/>
+    </row>
+    <row r="98" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B98" s="4"/>
+      <c r="F98" s="7"/>
+    </row>
+    <row r="99" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B99" s="4"/>
+      <c r="F99" s="7"/>
+    </row>
+    <row r="100" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B100" s="4"/>
+    </row>
+    <row r="101" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B101" s="4"/>
+    </row>
+    <row r="102" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B102" s="4"/>
+    </row>
+    <row r="103" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B103" s="4"/>
+    </row>
+    <row r="104" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B104" s="4"/>
+    </row>
+    <row r="105" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B105" s="4"/>
+    </row>
+    <row r="106" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B106" s="4"/>
+    </row>
+    <row r="107" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B107" s="4"/>
+    </row>
+    <row r="108" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B108" s="4"/>
+    </row>
+    <row r="109" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B109" s="4"/>
+    </row>
+    <row r="110" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B110" s="4"/>
+    </row>
+    <row r="111" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B111" s="4"/>
+    </row>
+    <row r="112" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B112" s="4"/>
+    </row>
+    <row r="113" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B113" s="4"/>
+    </row>
+    <row r="114" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B114" s="4"/>
+    </row>
+    <row r="115" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B115" s="4"/>
+    </row>
+    <row r="116" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B116" s="4"/>
+    </row>
+    <row r="117" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B117" s="4"/>
+    </row>
+    <row r="118" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B118" s="4"/>
+    </row>
+    <row r="119" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B119" s="4"/>
+    </row>
+    <row r="120" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B120" s="4"/>
+    </row>
+    <row r="121" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B121" s="4"/>
+    </row>
+    <row r="122" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B122" s="4"/>
+    </row>
+    <row r="123" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B123" s="4"/>
+    </row>
+    <row r="124" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B124" s="4"/>
+    </row>
+    <row r="125" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B125" s="4"/>
+    </row>
+    <row r="126" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B126" s="4"/>
+    </row>
+    <row r="127" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B127" s="4"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Шаблоны/Scenar2.xlsx
+++ b/Шаблоны/Scenar2.xlsx
@@ -1027,7 +1027,7 @@
       </c>
       <c r="B2" s="3">
         <f ca="1">TODAY()</f>
-        <v>45407</v>
+        <v>45420</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1604,8 +1604,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="C71" sqref="C71"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2752,7 +2752,7 @@
         <v>138</v>
       </c>
       <c r="E57">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F57" s="7" t="s">
         <v>76</v>
@@ -2812,7 +2812,7 @@
         <v>138</v>
       </c>
       <c r="E60">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F60" s="7" t="s">
         <v>79</v>
